--- a/docs/PT3/PT3_01.08.24_output.xlsx
+++ b/docs/PT3/PT3_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1096 +505,1301 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730824322.590178</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730824330.8973777</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824322.590178.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824330.8973777.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.97</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.88</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.09000000000003183</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730824348.1817806</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730824349.950317</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824348.1817806.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824349.950317.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.55</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>288</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730824353.174245</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1730824353.174245.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1730824353.174245.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>287.94</v>
       </c>
-      <c r="J5" t="n">
-        <v>287.94</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="L5" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730824356.0035138</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730824365.1149564</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824356.0035138.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824365.1149564.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.22</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.4799999999999898</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730824365.1305716</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730824365.233052</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824365.1305716.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824365.233052.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.22</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.32</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730824365.2926154</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730824366.6498399</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824365.2926154.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824366.6498399.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.35</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.06</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730824368.2935922</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730824369.8674915</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824368.2935922.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824369.8674915.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>133.03</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>133.18</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1500000000000057</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730824379.3394449</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730824380.780232</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824379.3394449.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824380.780232.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.77</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>132.32</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.4500000000000171</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730824382.5951774</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730824384.3277872</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824382.5951774.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824384.3277872.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>132.43</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>131.77</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6599999999999966</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730824385.4505892</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730824385.7287803</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824385.4505892.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824385.7287803.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>132.22</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>131.94</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730824387.4457185</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1730824387.4457185.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1730824387.4457185.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>132.01</v>
       </c>
-      <c r="J13" t="n">
-        <v>132.01</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.09000000000000341</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730824403.1669858</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730824404.9132373</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730824403.1669858.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730824404.9132373.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6726</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6714.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>11.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730824415.8114307</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730824418.0208235</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730824415.8114307.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730824418.0208235.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6704.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6693.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730824422.0178542</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1730824422.0178542.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1730824422.0178542.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6686.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>6686.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="L16" t="n">
+        <v>6687</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730824422.327958</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730824422.9098706</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824422.327958.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824422.9098706.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>514.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>517.95</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>3.550000000000068</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730824423.7646563</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730824423.9940789</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824423.7646563.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824423.9940789.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>516.05</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>516.95</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.9000000000000909</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730824424.5417285</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730824436.262939</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824424.5417285.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824436.262939.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>516.3</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>511.55</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-4.749999999999943</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730824438.052639</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730824439.3372915</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824438.052639.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824439.3372915.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>512.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>512.35</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.04999999999995453</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730824439.3941853</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730824440.3142996</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824439.3941853.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824440.3142996.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>512.3</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>512.75</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.4500000000000455</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730824445.5321596</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730824446.0351915</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824445.5321596.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824446.0351915.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>511.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>506.35</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>4.849999999999966</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730824451.6218972</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730824452.3154266</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824451.6218972.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824452.3154266.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>506.85</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>505.25</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730824453.357246</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730824453.4128778</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824453.357246.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730824453.4128778.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>506.1</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>506.1</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1587,612 +1807,729 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730824453.848349</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1730824453.848349.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1730824453.848349.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>505.8</v>
       </c>
-      <c r="J25" t="n">
-        <v>505.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>506.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730824458.1205144</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730824462.9115102</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730824458.1205144.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730824462.9115102.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>233.18</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>232.91</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.2700000000000102</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730824476.2643318</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730824477.3079364</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730824476.2643318.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730824477.3079364.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>232.59</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>231.31</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.280000000000001</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730824479.55</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730824481.348652</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730824479.55.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730824481.348652.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>231.33</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>230.88</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4500000000000171</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730824486.4185357</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1730824486.4185357.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1730824486.4185357.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>229.74</v>
       </c>
-      <c r="J29" t="n">
-        <v>229.74</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>229.85</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.1099999999999852</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730824487.176718</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730824487.3244429</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824487.176718.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824487.3244429.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1041.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1045.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>4.199999999999818</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730824490.1276102</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730824493.1172967</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824490.1276102.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824493.1172967.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1048.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1047.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.6000000000001364</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730824504.1197054</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730824505.4544656</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824504.1197054.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824505.4544656.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1037.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1039</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730824508.3583329</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730824509.554268</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824508.3583329.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824509.554268.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1035.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1032.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-3.200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730824510.2003803</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730824511.5670881</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824510.2003803.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824511.5670881.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1035.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1034.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730824515.3556104</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730824515.5860276</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824515.3556104.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824515.5860276.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1032.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1033</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730824516.0439236</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730824517.1850808</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824516.0439236.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730824517.1850808.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1032.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1031</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730824520.4734797</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1730824520.4734797.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1730824520.4734797.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1030.6</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1030.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2200,1396 +2537,1657 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730824523.1066675</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730824532.5588257</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730824523.1066675.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730824532.5588257.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>130.16</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>129.52</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.6399999999999864</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730824540.7465134</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730824542.5526705</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730824540.7465134.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730824542.5526705.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>129.34</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>128.64</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.7000000000000171</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730824545.323799</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730824547.290578</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730824545.323799.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730824547.290578.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>128.84</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>128.72</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730824551.7240872</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730824551.7240872.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730824551.7240872.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>128.6</v>
       </c>
-      <c r="J41" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
+      <c r="L41" t="n">
+        <v>128.64</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730824554.3629384</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730824554.5171468</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824554.3629384.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824554.5171468.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>165.76</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>166.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730824556.72508</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730824562.2782578</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824556.72508.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824562.2782578.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>166.56</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>166.38</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730824564.3525336</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730824565.74727</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824564.3525336.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824565.74727.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>166.9</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>166.88</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730824580.6377907</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730824581.5621321</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824580.6377907.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824581.5621321.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>165.24</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>164.92</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.3200000000000216</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730824583.1564636</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730824584.4518502</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824583.1564636.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824584.4518502.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>164.86</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>164.4</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730824585.4874704</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730824587.5371747</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824585.4874704.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730824587.5371747.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>164.72</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>164.7</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730824597.8731031</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730824599.1703234</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824597.8731031.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824599.1703234.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>50.96</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>50.995</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.03499999999999659</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730824606.2176309</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730824610.3010588</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824606.2176309.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824610.3010588.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>50.92</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>50.82</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730824610.3176508</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730824610.5900228</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824610.3176508.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824610.5900228.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>50.82</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>50.98</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730824611.1646626</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730824613.014257</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824611.1646626.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824613.014257.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>50.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>50.785</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730824613.0308764</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730824614.8193138</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824613.0308764.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730824614.8193138.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>50.785</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>50.8</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730824621.8315208</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730824622.0394535</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730824621.8315208.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730824622.0394535.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1416.4</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>4</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730824647.059363</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730824648.364306</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730824647.059363.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730824648.364306.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1414.2</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1411</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730824650.9041731</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730824653.2323253</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730824650.9041731.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730824653.2323253.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1411.6</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1412.2</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.6000000000001364</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730824655.3300796</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730824655.6472845</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730824655.3300796.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730824655.6472845.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>60.97</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>61.17</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730824656.6662674</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730824660.4501433</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730824656.6662674.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730824660.4501433.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>61.06</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>61.09</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730824660.4667351</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730824664.5158215</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730824660.4667351.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730824664.5158215.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>61.09</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>61.39</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.2999999999999972</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730824666.1976242</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730824668.8756094</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730824666.1976242.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730824668.8756094.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>61.31</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>61.28</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730824687.7700956</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730824687.7700956.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730824687.7700956.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>60.59</v>
       </c>
-      <c r="J60" t="n">
-        <v>60.59</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
+      <c r="L60" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.08999999999999631</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730824690.3541665</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730824692.8864539</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1730824690.3541665.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1730824692.8864539.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>59.01</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>58.86</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.1499999999999986</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730824702.904071</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730824704.5361211</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1730824702.904071.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1730824704.5361211.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>58.26</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>58.37</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730824719.3032343</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730824721.5231018</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SELG1730824719.3032343.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SELG1730824721.5231018.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>57.14</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>57.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730824738.6545484</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730824741.719874</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824738.6545484.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824741.719874.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>144.62</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>144</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.6200000000000045</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730824744.7367465</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730824746.583504</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824744.7367465.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824746.583504.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>143.94</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>144</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730824753.3252947</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730824753.3252947.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730824753.3252947.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>142.98</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>142.98</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3597,1348 +4195,1600 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730824756.66534</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730824760.0507572</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730824756.66534.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730824760.0507572.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>21.354</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>21.41</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.05600000000000094</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730824768.9287844</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730824771.1026182</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730824768.9287844.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730824771.1026182.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>21.206</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>21.196</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730824784.769752</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730824786.8557632</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730824784.769752.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730824786.8557632.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>20.842</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>20.843</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.001000000000001222</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730824797.585037</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730824805.9169834</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730824797.585037.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730824805.9169834.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>682.9</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>681.9</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730824809.755245</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730824809.9465997</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730824809.755245.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730824809.9465997.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>680.9</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>679.55</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>1.350000000000023</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730824814.4665906</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730824816.445149</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730824814.4665906.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730824816.445149.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>678.55</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>678.6</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.05000000000006821</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730824841.3331707</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730824842.8679862</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824841.3331707.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824842.8679862.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.10082</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.1006</v>
       </c>
-      <c r="K73" t="n">
-        <v>-0.000219999999999998</v>
+      <c r="M73" t="n">
+        <v>-0.0002200000000000119</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730824848.3923075</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730824849.7158477</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824848.3923075.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824849.7158477.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.09952000000000001</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.0003599999999999992</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730824883.5271926</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1730824883.5271926.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1730824883.5271926.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.6023000000000001</v>
       </c>
-      <c r="J75" t="n">
-        <v>0.6023000000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
+      <c r="L75" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.001000000000000112</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730824886.0873137</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730824886.222987</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824886.0873137.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824886.222987.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>3028.25</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>3032.1</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>3.849999999999909</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730824887.0615914</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730824887.22947</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824887.0615914.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824887.22947.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>3038.15</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>3037.35</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.8000000000001819</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730824888.9523997</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730824890.0050247</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824888.9523997.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824890.0050247.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>3031.9</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>3027.95</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>3.950000000000273</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730824890.5438588</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730824890.6805255</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824890.5438588.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824890.6805255.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>3027.5</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>3027.25</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730824891.0221298</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730824891.166546</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824891.0221298.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824891.166546.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>3025.75</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>3028.8</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>3.050000000000182</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730824894.8779964</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1730824895.359179</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824894.8779964.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824895.359179.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>3032.2</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>3031.1</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-1.099999999999909</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730824896.6401963</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730824897.1711683</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824896.6401963.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824897.1711683.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>3026.9</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>3025.75</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>1.150000000000091</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730824898.1668055</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730824899.0161731</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824898.1668055.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824899.0161731.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>3022.2</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>3016</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>6.199999999999818</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730824899.2876</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730824900.045485</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824899.2876.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824900.045485.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>3018.4</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>3018.35</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.0500000000001819</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730824901.9021266</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730824902.159811</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824901.9021266.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824902.159811.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>3021.8</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>3025</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-3.199999999999818</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730824902.417475</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730824903.261916</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824902.417475.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824903.261916.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>3021.6</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>3022.7</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>1.099999999999909</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730824904.0846052</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1730824906.222509</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824904.0846052.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824906.222509.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>3025.7</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>3018</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-7.699999999999818</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730824906.8372352</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730824907.180787</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824906.8372352.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824907.180787.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>3019.05</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>3012.35</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>6.700000000000273</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1730824907.692289</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1730824908.2291229</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824907.692289.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824908.2291229.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>3012.7</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>3011.8</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.8999999999996362</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1730824915.5855908</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1730824915.7173507</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824915.5855908.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MXI1730824915.7173507.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>2996.3</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>2995.65</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.6500000000000909</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1730824917.8317292</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730824917.8317292.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/MXI1730824917.8317292.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2996.3</v>
       </c>
-      <c r="J91" t="n">
-        <v>2996.3</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
+      <c r="L91" t="n">
+        <v>2996.05</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1730824920.318581</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1730824921.636567</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730824920.318581.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730824921.636567.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>34.895</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>34.825</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1730824939.7402995</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1730824941.2171524</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730824939.7402995.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730824941.2171524.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>34.935</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>34.63</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.3049999999999997</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.8699999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1730824948.5612829</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730824948.5612829.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730824948.5612829.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>34.37</v>
       </c>
-      <c r="J94" t="n">
-        <v>34.37</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
+      <c r="L94" t="n">
+        <v>34.425</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -4952,7 +5802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4976,6 +5826,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4984,11 +5849,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.05000000000064</v>
+        <v>14.80000000000064</v>
       </c>
       <c r="C2" t="n">
         <v>16</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.9250000000000398</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4997,11 +5871,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.750000000000114</v>
+        <v>4.750000000000114</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.5277777777777904</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5010,11 +5893,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9500000000000171</v>
+        <v>0.8600000000000136</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.1075000000000017</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5028,6 +5920,15 @@
       <c r="C5" t="n">
         <v>8</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.2249999999999375</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5041,6 +5942,15 @@
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.2066666666666729</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5054,6 +5964,15 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.05299999999999869</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5062,11 +5981,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.09999999999999432</v>
+        <v>-0.1899999999999906</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.03799999999999813</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5075,11 +6003,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.219999999999999</v>
+        <v>-1.259999999999991</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.3149999999999977</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5088,11 +6025,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.099999999999994</v>
+        <v>-1.20999999999998</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.3024999999999949</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.5299999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5101,11 +6047,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2349999999999994</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.05999999999999991</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5099999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5119,6 +6074,15 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.2266666666666689</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5132,6 +6096,15 @@
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.09999999999998484</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5145,6 +6118,15 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.1066666666666668</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5153,11 +6135,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4599999999999795</v>
+        <v>0.6499999999999773</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.2166666666666591</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5171,6 +6162,15 @@
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.02166666666666591</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5179,11 +6179,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.908195823574488e-17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5197,6 +6206,15 @@
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>2.19999999999997</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5205,11 +6223,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0001400000000000012</v>
+        <v>0.0001399999999999874</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>6.999999999999368e-05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5218,11 +6245,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.001000000000000112</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5236,6 +6272,11 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
